--- a/Untitled.xlsx
+++ b/Untitled.xlsx
@@ -7,7 +7,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A782C-C123-4637-AE1C-9F0CC3DFCC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FFD5EA-B669-4112-86E2-FB209C558E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>

--- a/Untitled.xlsx
+++ b/Untitled.xlsx
@@ -7,7 +7,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FFD5EA-B669-4112-86E2-FB209C558E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8EA047-1F2B-46DE-A602-F5C1A18DE820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
